--- a/data/trans_dic/P32B-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32B-Clase-trans_dic.xlsx
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01248667977516593</v>
+        <v>0.01485763709114339</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01025390251751206</v>
+        <v>0.00730446273793898</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01329431530242574</v>
+        <v>0.0133953698165826</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.003086142822030672</v>
+        <v>0.003061482691030938</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002206075913704309</v>
+        <v>0.002187485124850163</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008416849249958547</v>
+        <v>0.008447164685159185</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.006876978847290255</v>
+        <v>0.008210627047978961</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01165311387229073</v>
+        <v>0.01112136152542386</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.02309378396401759</v>
+        <v>0.02004129979727367</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0535072094559088</v>
+        <v>0.05510196641999831</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05051638308708874</v>
+        <v>0.05172996964834146</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.06705154395191588</v>
+        <v>0.06463101416703754</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.05743763425909595</v>
+        <v>0.04603373879256313</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.04184921348834797</v>
+        <v>0.03018985679590216</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03369556335536389</v>
+        <v>0.02981110453917711</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01855442561830986</v>
+        <v>0.01850428682104326</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.0370758636089171</v>
+        <v>0.03808093110663956</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03746771269537958</v>
+        <v>0.0377164545003483</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.04700184537694573</v>
+        <v>0.04839288882652843</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.01619601634918317</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.007251692803614044</v>
+        <v>0.007251692803614043</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.0133773063596944</v>
@@ -829,7 +829,7 @@
         <v>0.01157705830399333</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01559800261095468</v>
+        <v>0.01559800261095467</v>
       </c>
     </row>
     <row r="8">
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.004227671554348284</v>
+        <v>0.004009326048072911</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -861,19 +861,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01019109111140848</v>
+        <v>0.01040612878750512</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002549390924022962</v>
+        <v>0</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00244682508714619</v>
+        <v>0.002449521076040904</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004290231602983244</v>
+        <v>0.004353984080627663</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.007629191821306713</v>
+        <v>0.007199306664436895</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.02169963846956083</v>
+        <v>0.02179512313092198</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02569266710970642</v>
+        <v>0.0194681631218521</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04028251330654448</v>
+        <v>0.04006169190404981</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.0262876451226349</v>
+        <v>0.02672078274730546</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04727342957289644</v>
+        <v>0.04610250462113526</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05197123544074655</v>
+        <v>0.04775990050948952</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0350188496971379</v>
+        <v>0.0295873811060746</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0614343612193661</v>
+        <v>0.05912127891538193</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.02155598472796523</v>
+        <v>0.02183643193158437</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01928974918876834</v>
+        <v>0.02140032057438373</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02392421375208391</v>
+        <v>0.02577135470217707</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.03182565445738621</v>
+        <v>0.03124343642122254</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.0183417739525398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.02745104189891839</v>
+        <v>0.02745104189891838</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -979,13 +979,13 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02123533046773316</v>
+        <v>0.0210300516043898</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.006402435864890091</v>
+        <v>0.006544430386629736</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.009765462970448405</v>
+        <v>0.01004920354227389</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="inlineStr"/>
@@ -997,13 +997,13 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.01895790101774944</v>
+        <v>0.01715397876857041</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01027236478042602</v>
+        <v>0.008194484757170948</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.006130183050792765</v>
+        <v>0.006240716369856756</v>
       </c>
     </row>
     <row r="12">
@@ -1014,34 +1014,34 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01667670009963753</v>
+        <v>0.01892477446254837</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06596542145663453</v>
+        <v>0.06905674420747984</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03771995949755744</v>
+        <v>0.03871361479297611</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.06774170453925553</v>
+        <v>0.06188176656776649</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.1195728000726193</v>
+        <v>0.1187821241778922</v>
       </c>
       <c r="J12" s="5" t="inlineStr"/>
       <c r="K12" s="5" t="n">
-        <v>0.0137887978369728</v>
+        <v>0.01527184596062468</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.05975075126795052</v>
+        <v>0.05623585625803423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03946534450990172</v>
+        <v>0.04083630826150451</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05592892608920283</v>
+        <v>0.05446572562298354</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.01270679543604878</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.01814664372900633</v>
+        <v>0.01814664372900632</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.0137466903166538</v>
@@ -1100,40 +1100,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.005759474271348179</v>
+        <v>0.006183365141110396</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02151971552601581</v>
+        <v>0.02180226208827812</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01289551716431684</v>
+        <v>0.0116933473013582</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.008994993272712236</v>
+        <v>0.009886852967347272</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0</v>
+        <v>0.004825444864456211</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.003096703463692533</v>
+        <v>0.003177088522494713</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.004609090907404977</v>
+        <v>0.004525462348859095</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007045190813918014</v>
+        <v>0.006990823257068349</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01672289576700208</v>
+        <v>0.01665494078005165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01152246246923758</v>
+        <v>0.01228660639687237</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01062108506610361</v>
+        <v>0.01075089085939161</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02446776267599741</v>
+        <v>0.02824138786190104</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.05107397978537082</v>
+        <v>0.05244686946385969</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03854298041204559</v>
+        <v>0.03760207203743527</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03451041127311846</v>
+        <v>0.03440661314592234</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04405851614389913</v>
+        <v>0.04756954717637131</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02367612995682864</v>
+        <v>0.0217734275485706</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.02930753315205304</v>
+        <v>0.03214038866165914</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.05418562399434985</v>
+        <v>0.05867270032774395</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02350104788502054</v>
+        <v>0.02431574816591844</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.0397311064035841</v>
+        <v>0.04045558172507905</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03110917448141485</v>
+        <v>0.03231277446783111</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03297303348694115</v>
+        <v>0.03361005931754158</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.01198773155452293</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.02719091169737706</v>
+        <v>0.02719091169737707</v>
       </c>
     </row>
     <row r="17">
@@ -1239,13 +1239,13 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0058299109488447</v>
+        <v>0.005345994419948417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007175093905999244</v>
+        <v>0.008231593912863744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01638943791957073</v>
+        <v>0.01529290571927103</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1255,19 +1255,19 @@
       </c>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.006845826696698057</v>
+        <v>0.00719998643458047</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002544206877750341</v>
+        <v>0.002577841286815494</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.006127090946170642</v>
+        <v>0.005650602922992565</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.005234932640168848</v>
+        <v>0.004928823459219117</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0150449617869857</v>
+        <v>0.01574011850293058</v>
       </c>
     </row>
     <row r="18">
@@ -1278,38 +1278,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02116489805900429</v>
+        <v>0.02454533408491062</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03321455554407937</v>
+        <v>0.03105520276742577</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04014174052982444</v>
+        <v>0.04084850168655155</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06351844331041484</v>
+        <v>0.06097988026617486</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.04895588283824287</v>
+        <v>0.04766706159699283</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03989512720065864</v>
+        <v>0.03672702235822495</v>
       </c>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.04510491600649984</v>
+        <v>0.04103585114734572</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0275968741760734</v>
+        <v>0.02866857993942101</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.0283249491158645</v>
+        <v>0.02627776388671351</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.02481699641287201</v>
+        <v>0.02600130848089685</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04685639689995881</v>
+        <v>0.04750104889342635</v>
       </c>
     </row>
     <row r="19">
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02111438715874426</v>
+        <v>0.02152636205695367</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.005905167661277155</v>
+        <v>0.005866964412140174</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003705480597718219</v>
+        <v>0.003721614729892737</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.0119826730306928</v>
+        <v>0.009824415489622162</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.007067544202889649</v>
+        <v>0.008748248493952589</v>
       </c>
       <c r="N20" s="5" t="n">
         <v>0</v>
@@ -1410,38 +1410,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.04238257406501129</v>
+        <v>0.04328104736117445</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09362224470578268</v>
+        <v>0.09393177072676819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05760738628643899</v>
+        <v>0.05747957812435942</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.02710879629622925</v>
+        <v>0.02334405286356143</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.02957730471960234</v>
+        <v>0.02252035304201398</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.03446002701439506</v>
+        <v>0.03795761887678636</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.07988392156035794</v>
+        <v>0.08753337851892518</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.02020534570019497</v>
+        <v>0.01945097162416332</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.04160871209114026</v>
+        <v>0.03905612734213522</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03436567995140947</v>
+        <v>0.03430325953276188</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05275629413493441</v>
+        <v>0.05294834056111963</v>
       </c>
     </row>
     <row r="22">
@@ -1500,40 +1500,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004835956254068657</v>
+        <v>0.00451722757613237</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02209337191816537</v>
+        <v>0.02128269257856233</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01535206944544666</v>
+        <v>0.0153719642280666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01487143331404998</v>
+        <v>0.01451020106865475</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.004835474993158494</v>
+        <v>0.005605348878450519</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.002895763141417199</v>
+        <v>0.003034297693748506</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.005716244320345783</v>
+        <v>0.005549575817139751</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.01046133629368031</v>
+        <v>0.01006527443290267</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.005809376458173628</v>
+        <v>0.005802173223656944</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01636654567760207</v>
+        <v>0.01629680013121642</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01283278271671266</v>
+        <v>0.01305364064173255</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.01532710804745388</v>
+        <v>0.01481494700654035</v>
       </c>
     </row>
     <row r="24">
@@ -1544,40 +1544,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01356481461222097</v>
+        <v>0.01326601063101822</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03811765503955823</v>
+        <v>0.03729173007851291</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02856598041582465</v>
+        <v>0.02907686562931359</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03258217640733215</v>
+        <v>0.03063226848687416</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01922248352337151</v>
+        <v>0.01950625053626756</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.01370602835064013</v>
+        <v>0.01360532414638729</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.01736184190584366</v>
+        <v>0.01696744259224608</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.02938595491573283</v>
+        <v>0.02879018414952378</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01316240192612386</v>
+        <v>0.01321657625862039</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02704221776738699</v>
+        <v>0.02717638287928217</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02249367472306321</v>
+        <v>0.02239517288847278</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02744869505613597</v>
+        <v>0.02705270385532524</v>
       </c>
     </row>
     <row r="25">
@@ -1853,13 +1853,13 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3664</v>
+        <v>4360</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2961</v>
+        <v>2109</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>4020</v>
+        <v>4051</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
@@ -1869,19 +1869,19 @@
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>3725</v>
+        <v>3739</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>3045</v>
+        <v>3635</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>5568</v>
+        <v>5314</v>
       </c>
     </row>
     <row r="7">
@@ -1892,38 +1892,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6693</v>
+        <v>5808</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15703</v>
+        <v>16171</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14588</v>
+        <v>14938</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>20276</v>
+        <v>19544</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7356</v>
+        <v>5895</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>6442</v>
+        <v>4647</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>5911</v>
+        <v>5229</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>7753</v>
+        <v>7732</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>16410</v>
+        <v>16855</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>16588</v>
+        <v>16698</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>22458</v>
+        <v>23123</v>
       </c>
     </row>
     <row r="8">
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1010</v>
+        <v>958</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1471</v>
+        <v>1502</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1847</v>
+        <v>1874</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>2815</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="11">
@@ -2070,40 +2070,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>4844</v>
+        <v>4865</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>6512</v>
+        <v>4934</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>9628</v>
+        <v>9575</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>5907</v>
+        <v>6004</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>7274</v>
+        <v>7093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>7407</v>
+        <v>6807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6703</v>
+        <v>5664</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>8867</v>
+        <v>8533</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>8128</v>
+        <v>8234</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>7638</v>
+        <v>8474</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>10298</v>
+        <v>11093</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>11745</v>
+        <v>11530</v>
       </c>
     </row>
     <row r="12">
@@ -2209,13 +2209,13 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>8244</v>
+        <v>8164</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2122</v>
+        <v>2169</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2228</v>
+        <v>2292</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -2227,13 +2227,13 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8848</v>
+        <v>8006</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>3970</v>
+        <v>3167</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1684</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="15">
@@ -2244,34 +2244,34 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5650</v>
+        <v>6411</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>25609</v>
+        <v>26809</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12504</v>
+        <v>12834</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15452</v>
+        <v>14116</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>6575</v>
+        <v>6532</v>
       </c>
       <c r="J15" s="6" t="inlineStr"/>
       <c r="K15" s="6" t="n">
-        <v>5523</v>
+        <v>6117</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>27887</v>
+        <v>26247</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>15253</v>
+        <v>15783</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>15362</v>
+        <v>14960</v>
       </c>
     </row>
     <row r="16">
@@ -2374,40 +2374,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3856</v>
+        <v>4140</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>14285</v>
+        <v>14472</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>8496</v>
+        <v>7704</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4883</v>
+        <v>5367</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0</v>
+        <v>928</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1058</v>
+        <v>1039</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6072</v>
+        <v>6025</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>14933</v>
+        <v>14872</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>11021</v>
+        <v>11752</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>8205</v>
+        <v>8306</v>
       </c>
     </row>
     <row r="19">
@@ -2418,40 +2418,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>16382</v>
+        <v>18909</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33902</v>
+        <v>34814</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25392</v>
+        <v>24772</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18735</v>
+        <v>18679</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8474</v>
+        <v>9149</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>5425</v>
+        <v>4989</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8724</v>
+        <v>9567</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12444</v>
+        <v>13474</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>20255</v>
+        <v>20957</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>35477</v>
+        <v>36124</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>29754</v>
+        <v>30906</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>25473</v>
+        <v>25965</v>
       </c>
     </row>
     <row r="20">
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1773</v>
+        <v>1626</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2271</v>
+        <v>2605</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>4212</v>
+        <v>3930</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2573,19 +2573,19 @@
       </c>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>1049</v>
+        <v>1103</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>904</v>
+        <v>916</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2998</v>
+        <v>2764</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2656</v>
+        <v>2501</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>6172</v>
+        <v>6457</v>
       </c>
     </row>
     <row r="23">
@@ -2596,38 +2596,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>4552</v>
+        <v>5279</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>10101</v>
+        <v>9445</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>12704</v>
+        <v>12928</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16324</v>
+        <v>15671</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>6873</v>
+        <v>6692</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7385</v>
+        <v>6798</v>
       </c>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>6912</v>
+        <v>6289</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>9810</v>
+        <v>10191</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13857</v>
+        <v>12856</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>12592</v>
+        <v>13193</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>19222</v>
+        <v>19487</v>
       </c>
     </row>
     <row r="24">
@@ -2733,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>2919</v>
+        <v>2976</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>937</v>
+        <v>941</v>
       </c>
       <c r="J26" s="6" t="n">
         <v>0</v>
@@ -2755,10 +2755,10 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4812</v>
+        <v>3945</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>2932</v>
+        <v>3630</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0</v>
@@ -2772,38 +2772,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5913</v>
+        <v>6038</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12943</v>
+        <v>12986</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9334</v>
+        <v>9313</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>5912</v>
+        <v>5091</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7788</v>
+        <v>5930</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>8714</v>
+        <v>9599</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>10103</v>
+        <v>11070</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>7226</v>
+        <v>6956</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>16708</v>
+        <v>15683</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>14259</v>
+        <v>14233</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>11201</v>
+        <v>11242</v>
       </c>
     </row>
     <row r="28">
@@ -2906,40 +2906,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>9072</v>
+        <v>8474</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>45099</v>
+        <v>43444</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>30652</v>
+        <v>30691</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>24403</v>
+        <v>23810</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>4325</v>
+        <v>5014</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3034</v>
+        <v>3179</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>6527</v>
+        <v>6337</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>9161</v>
+        <v>8814</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>16095</v>
+        <v>16075</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>50557</v>
+        <v>50341</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>40274</v>
+        <v>40968</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>38572</v>
+        <v>37283</v>
       </c>
     </row>
     <row r="31">
@@ -2950,40 +2950,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>25447</v>
+        <v>24886</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>77810</v>
+        <v>76124</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>57035</v>
+        <v>58055</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>53465</v>
+        <v>50265</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>17195</v>
+        <v>17449</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>14360</v>
+        <v>14254</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>19824</v>
+        <v>19374</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>25733</v>
+        <v>25211</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>36466</v>
+        <v>36616</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>83534</v>
+        <v>83948</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>70594</v>
+        <v>70285</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>69078</v>
+        <v>68081</v>
       </c>
     </row>
     <row r="32">
